--- a/mbs-perturbation/bottleneck/welm/nearmiss/bloated_welm_lin_nearmiss_results.xlsx
+++ b/mbs-perturbation/bottleneck/welm/nearmiss/bloated_welm_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7248520710059172</v>
+        <v>0.7178571428571429</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8928571428571428</v>
+        <v>0.9769230769230769</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.8968253968253969</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.96</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.75</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9600000000000001</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9871794871794872</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.72</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.7500000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8376623376623376</v>
+        <v>0.8615384615384616</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7898461538461538</v>
+        <v>0.7855072463768116</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7637362637362638</v>
+        <v>0.704017094017094</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7770743999131096</v>
+        <v>0.7635947712418301</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8647006839314532</v>
+        <v>0.8281288156288156</v>
       </c>
     </row>
   </sheetData>
